--- a/dtpu_configurations/only_integer32/30mhz/mxu_10x10/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_10x10/utilization.xlsx
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>21.81390953063965</v>
+        <v>76.45112609863281</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.896552085876465</v>
+        <v>7.528735637664795</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>15.231202125549316</v>
+        <v>33.999061584472656</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>40.90909194946289</v>
+        <v>90.90909576416016</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
